--- a/data/trans_bre/IP18A06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A06-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>9,62</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-79,74%</t>
+          <t>366,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-47,68%</t>
+          <t>-83,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-5,44%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-67,23%</t>
+          <t>392,68%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,56; -0,56</t>
+          <t>0,58; 5,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 0,6</t>
+          <t>-4,08; -0,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 2,43</t>
+          <t>-1,61; 2,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 0,63</t>
+          <t>0,76; 23,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1,19</t>
+          <t>-39,09; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-89,3; 52,58</t>
+          <t>-100,0; 168,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-64,18; 139,91</t>
+          <t>-78,37; 375,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 85,96</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,62</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>366,28%</t>
+          <t>-79,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-83,38%</t>
+          <t>-47,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>-5,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>392,68%</t>
+          <t>-67,23%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,74</t>
+          <t>-4,56; -0,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,08; -0,31</t>
+          <t>-4,27; 0,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,03</t>
+          <t>-2,94; 2,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 23,57</t>
+          <t>-13,6; 0,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-39,09; —</t>
+          <t>-100,0; 1,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 168,78</t>
+          <t>-89,3; 52,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-78,37; 375,87</t>
+          <t>-64,18; 139,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 85,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A06-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>58,34%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>157,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>115,42%</t>
+          <t>143,35%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-55,11%</t>
+          <t>-19,93%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,3</t>
+          <t>-3,04; 2,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,04</t>
+          <t>-0,65; 2,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,54</t>
+          <t>-1,33; 2,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 3,48</t>
+          <t>-11,26; 5,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-79,16; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-78,28; 392,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-95,21; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,62</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>366,28%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-83,38%</t>
+          <t>-53,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>-0,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>392,68%</t>
+          <t>464,64%</t>
         </is>
       </c>
     </row>
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,74</t>
+          <t>1,3; 4,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,08; -0,31</t>
+          <t>-3,97; 0,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,03</t>
+          <t>-1,63; 1,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 23,57</t>
+          <t>-0,6; 22,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,09; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 168,78</t>
+          <t>-90,08; 75,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-78,37; 375,87</t>
+          <t>-84,12; 470,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>-4,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-79,74%</t>
+          <t>-28,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-47,68%</t>
+          <t>-58,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-5,44%</t>
+          <t>24,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-67,23%</t>
+          <t>-46,92%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,56; -0,56</t>
+          <t>-4,33; 2,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 0,6</t>
+          <t>-4,29; 0,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 2,43</t>
+          <t>-2,59; 3,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 0,63</t>
+          <t>-15,04; 5,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1,19</t>
+          <t>-100,0; 338,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-89,3; 52,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-64,18; 139,91</t>
+          <t>-69,61; 323,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 85,96</t>
+          <t>-100,0; inf</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>-85,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-45,84%</t>
+          <t>-52,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>-18,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>-33,84%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,4</t>
+          <t>-4,88; -0,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,08</t>
+          <t>-4,42; 1,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 1,55</t>
+          <t>-3,59; 2,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 5,49</t>
+          <t>-10,84; 7,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,04; 136,71</t>
+          <t>-100,0; 49,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,17; 13,47</t>
+          <t>-100,0; 122,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,68; 153,76</t>
+          <t>-83,44; 276,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,15; 163,63</t>
+          <t>-100,0; 362,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13,06%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-45,84%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14,13%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 1,49</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 0,03</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 1,43</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,47; 5,91</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-46,55; 145,41</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-74,45; 6,19</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-36,98; 116,76</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-61,66; 202,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP18A06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A06-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 2,89</t>
+          <t>-3,05; 2,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 2,5</t>
+          <t>-0,64; 2,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,84</t>
+          <t>-1,21; 2,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 5,34</t>
+          <t>-11,84; 5,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,8</t>
+          <t>1,33; 4,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 0,56</t>
+          <t>-3,93; 0,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,83</t>
+          <t>-1,58; 1,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 22,95</t>
+          <t>-0,2; 21,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-90,08; 75,0</t>
+          <t>-91,79; 51,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-84,12; 470,03</t>
+          <t>-83,9; 367,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 2,62</t>
+          <t>-4,28; 2,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 0,98</t>
+          <t>-4,57; 0,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,53</t>
+          <t>-2,36; 3,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 5,2</t>
+          <t>-15,63; 6,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 338,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-69,61; 323,43</t>
+          <t>-66,01; 303,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; inf</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,88; -0,4</t>
+          <t>-5,14; -0,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 1,08</t>
+          <t>-4,53; 1,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 2,28</t>
+          <t>-4,04; 2,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 7,01</t>
+          <t>-10,66; 6,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 49,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 122,89</t>
+          <t>-100,0; 117,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-83,44; 276,79</t>
+          <t>-84,39; 215,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 362,75</t>
+          <t>-100,0; 385,32</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,49</t>
+          <t>-1,06; 1,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,03</t>
+          <t>-2,28; 0,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,43</t>
+          <t>-1,06; 1,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 5,91</t>
+          <t>-5,19; 5,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-46,55; 145,41</t>
+          <t>-47,77; 145,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-74,45; 6,19</t>
+          <t>-75,23; 18,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-36,98; 116,76</t>
+          <t>-45,2; 119,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-61,66; 202,85</t>
+          <t>-64,71; 182,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A06-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-19,93%</t>
+          <t>-19,66%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 2,91</t>
+          <t>-2,75; 2,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 2,53</t>
+          <t>-0,79; 2,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,84</t>
+          <t>-1,21; 2,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 5,31</t>
+          <t>-10,44; 5,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,05</t>
+          <t>7,89</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>464,64%</t>
+          <t>454,12%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,99</t>
+          <t>1,26; 4,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 0,4</t>
+          <t>-4,09; 0,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 1,75</t>
+          <t>-1,51; 1,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 21,39</t>
+          <t>-0,48; 22,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-91,79; 51,58</t>
+          <t>-90,59; 44,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-83,9; 367,89</t>
+          <t>-85,43; 541,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-46,92%</t>
+          <t>-48,28%</t>
         </is>
       </c>
     </row>
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 2,54</t>
+          <t>-4,26; 3,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 0,77</t>
+          <t>-4,33; 0,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 3,7</t>
+          <t>-2,36; 3,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 6,8</t>
+          <t>-15,74; 5,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 312,66</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-66,01; 303,3</t>
+          <t>-58,59; 281,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-33,84%</t>
+          <t>-31,62%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,14; -0,75</t>
+          <t>-4,8; -0,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,08</t>
+          <t>-4,15; 1,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 2,14</t>
+          <t>-3,74; 2,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 6,7</t>
+          <t>-11,01; 7,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 100,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 117,12</t>
+          <t>-100,0; 132,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-84,39; 215,46</t>
+          <t>-84,37; 233,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 385,32</t>
+          <t>-100,0; 475,24</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,84%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,37</t>
+          <t>-0,97; 1,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,18</t>
+          <t>-2,22; 0,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,5</t>
+          <t>-1,03; 1,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 5,46</t>
+          <t>-4,96; 5,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,77; 145,76</t>
+          <t>-49,04; 136,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-75,23; 18,17</t>
+          <t>-74,17; 13,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-45,2; 119,33</t>
+          <t>-41,68; 153,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-64,71; 182,97</t>
+          <t>-68,19; 168,49</t>
         </is>
       </c>
     </row>
